--- a/backend/Planilha.xlsx
+++ b/backend/Planilha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexssander.tanes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexssander.tanes\Desktop\Empreenda\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD990CF3-CB6C-4138-8538-88A8E513E135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D67A000-31FB-4BB5-9851-A3597EA7029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Total A</t>
   </si>
@@ -227,21 +227,6 @@
       </rPr>
       <t xml:space="preserve"> H</t>
     </r>
-  </si>
-  <si>
-    <t>Cada professor terá Login e senha para:</t>
-  </si>
-  <si>
-    <t>Curso, local, turma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O ideal é que haja uma planilha relatório que </t>
-  </si>
-  <si>
-    <t>Professor lançará a frequência do dia da aula.</t>
-  </si>
-  <si>
-    <t>totalize o somatório dos alunos por aula já realizada.</t>
   </si>
   <si>
     <r>
@@ -704,6 +689,43 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -725,43 +747,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1138,7 +1123,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,47 +1144,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -1239,9 +1224,6 @@
       <c r="O3" s="5"/>
       <c r="P3" s="13" t="s">
         <v>2</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="S3" s="4"/>
     </row>
@@ -1264,9 +1246,6 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="R4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1323,9 +1302,6 @@
         <f>IF(N6&gt;=7, "Aprovado", "Reprovado")</f>
         <v>Reprovado</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
@@ -1384,9 +1360,6 @@
         <f t="shared" si="2"/>
         <v>Reprovado</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
@@ -1415,9 +1388,6 @@
       <c r="P9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Reprovado</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2196,10 +2166,10 @@
       </c>
     </row>
     <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="17">
         <f>COUNTIF(C6:C36,"A")</f>
         <v>0</v>
@@ -2246,10 +2216,10 @@
       <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="19">
         <f t="shared" ref="C38:L38" si="4">COUNTIF(C6:C36,"P")</f>
         <v>0</v>
@@ -2296,29 +2266,29 @@
       <c r="P38" s="22"/>
     </row>
     <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="52"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="45"/>
       <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="32"/>
       <c r="E40" s="1" t="s">
         <v>9</v>
@@ -2330,27 +2300,27 @@
       <c r="P40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="46"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="7"/>
     </row>
@@ -2406,6 +2376,11 @@
     <sortCondition ref="B6"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="E41:H41"/>
     <mergeCell ref="K41:O41"/>
     <mergeCell ref="A37:B37"/>
@@ -2413,11 +2388,6 @@
     <mergeCell ref="A39:P39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
